--- a/forecast_summary_B0926ZVM75.xlsx
+++ b/forecast_summary_B0926ZVM75.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,37 +438,42 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
         </is>
       </c>
     </row>
@@ -477,32 +482,35 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
+        <v>25.12335399493642</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.49022277372538</v>
+      </c>
+      <c r="E2" t="n">
         <v>27</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>33</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>40</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>50</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -510,32 +518,35 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
+        <v>49.35301437976065</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90.03551514518101</v>
+      </c>
+      <c r="E3" t="n">
         <v>32</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>39</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>51</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>70</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -543,32 +554,35 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
+        <v>59.69824943676435</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100.4862034519408</v>
+      </c>
+      <c r="E4" t="n">
         <v>32</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>39</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>51</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>70</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -576,32 +590,35 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
+        <v>46.79741041881112</v>
+      </c>
+      <c r="D5" t="n">
+        <v>87.2612755625121</v>
+      </c>
+      <c r="E5" t="n">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>37</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>49</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>69</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -609,32 +626,35 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
+        <v>27.36737452470465</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67.18615084611564</v>
+      </c>
+      <c r="E6" t="n">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>27</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>36</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>51</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -642,32 +662,35 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
+        <v>28.09479955804124</v>
+      </c>
+      <c r="D7" t="n">
+        <v>71.0912985492821</v>
+      </c>
+      <c r="E7" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>22</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>30</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>42</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -675,32 +698,35 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
+        <v>55.00113478780479</v>
+      </c>
+      <c r="D8" t="n">
+        <v>94.79675029566</v>
+      </c>
+      <c r="E8" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>23</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>30</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>43</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -708,32 +734,35 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C9" t="n">
+        <v>83.46310685830331</v>
+      </c>
+      <c r="D9" t="n">
+        <v>125.0888875981711</v>
+      </c>
+      <c r="E9" t="n">
         <v>19</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>23</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>31</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>45</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -741,32 +770,35 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C10" t="n">
+        <v>82.85092573237242</v>
+      </c>
+      <c r="D10" t="n">
+        <v>123.5817061363101</v>
+      </c>
+      <c r="E10" t="n">
         <v>18</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>22</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>29</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>41</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -774,32 +806,35 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C11" t="n">
+        <v>50.11370514428567</v>
+      </c>
+      <c r="D11" t="n">
+        <v>88.52955448025668</v>
+      </c>
+      <c r="E11" t="n">
         <v>18</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>22</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>29</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>42</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -807,32 +842,35 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
+        <v>14.7929575746927</v>
+      </c>
+      <c r="D12" t="n">
+        <v>54.89016644157122</v>
+      </c>
+      <c r="E12" t="n">
         <v>18</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
         <v>22</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>29</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>41</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -840,32 +878,35 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
+        <v>9.035607125400078</v>
+      </c>
+      <c r="D13" t="n">
+        <v>47.69033614725895</v>
+      </c>
+      <c r="E13" t="n">
         <v>18</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>22</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>30</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>43</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -873,32 +914,35 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
+        <v>35.17847751216249</v>
+      </c>
+      <c r="D14" t="n">
+        <v>76.52593250226803</v>
+      </c>
+      <c r="E14" t="n">
         <v>19</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>23</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>30</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>44</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -906,32 +950,35 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C15" t="n">
+        <v>65.7132484179879</v>
+      </c>
+      <c r="D15" t="n">
+        <v>106.6172904961207</v>
+      </c>
+      <c r="E15" t="n">
         <v>18</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
         <v>22</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>29</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>42</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -939,32 +986,35 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C16" t="n">
+        <v>73.90581115856197</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.6049387088206</v>
+      </c>
+      <c r="E16" t="n">
         <v>19</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
         <v>23</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>31</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>45</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -972,32 +1022,35 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C17" t="n">
+        <v>60.40702193231501</v>
+      </c>
+      <c r="D17" t="n">
+        <v>99.21589024655</v>
+      </c>
+      <c r="E17" t="n">
         <v>18</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
         <v>22</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>30</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>43</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1005,32 +1058,35 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
+        <v>48.37703869566634</v>
+      </c>
+      <c r="D18" t="n">
+        <v>88.20796552728305</v>
+      </c>
+      <c r="E18" t="n">
         <v>17</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
         <v>20</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>28</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>40</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1038,32 +1094,35 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C19" t="n">
+        <v>56.05080131399676</v>
+      </c>
+      <c r="D19" t="n">
+        <v>97.75400094861101</v>
+      </c>
+      <c r="E19" t="n">
         <v>18</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" t="n">
         <v>22</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>30</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>43</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1071,32 +1130,35 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
+        <v>83</v>
+      </c>
+      <c r="C20" t="n">
+        <v>78.45609554286891</v>
+      </c>
+      <c r="D20" t="n">
+        <v>119.778628139825</v>
+      </c>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" t="n">
+        <v>24</v>
+      </c>
+      <c r="G20" t="n">
+        <v>32</v>
+      </c>
+      <c r="H20" t="n">
         <v>47</v>
       </c>
-      <c r="C20" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" t="n">
-        <v>24</v>
-      </c>
-      <c r="E20" t="n">
-        <v>32</v>
-      </c>
-      <c r="F20" t="n">
-        <v>47</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1104,32 +1166,35 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C21" t="n">
+        <v>95.68109118339972</v>
+      </c>
+      <c r="D21" t="n">
+        <v>135.0507169621557</v>
+      </c>
+      <c r="E21" t="n">
         <v>17</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
         <v>21</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>28</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>40</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>B0926ZVM75</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>G32QC A-SA</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>B0926ZVM75</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>G32QC A-SA</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>831</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>407</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1380,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
     </row>
